--- a/medicine/Psychotrope/Promaque_de_Macédoine/Promaque_de_Macédoine.xlsx
+++ b/medicine/Psychotrope/Promaque_de_Macédoine/Promaque_de_Macédoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Promaque_de_Mac%C3%A9doine</t>
+          <t>Promaque_de_Macédoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Promaque (en grec ancien : Πρόμαχος, mort en 324 av. J.-C.) était un soldat de l'armée d'Alexandre le Grand. En 324 à Suse, lors d'un concours de boisson à l'occasion des funérailles du philosophe indien Calanus, il a bu l'équivalent de treize litres de vin pur et a remporté le premier prix[1].
-Il est mort trois jours plus tard, tout comme quarante et un autres participants au concours[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Promaque (en grec ancien : Πρόμαχος, mort en 324 av. J.-C.) était un soldat de l'armée d'Alexandre le Grand. En 324 à Suse, lors d'un concours de boisson à l'occasion des funérailles du philosophe indien Calanus, il a bu l'équivalent de treize litres de vin pur et a remporté le premier prix.
+Il est mort trois jours plus tard, tout comme quarante et un autres participants au concours.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Promaque_de_Mac%C3%A9doine</t>
+          <t>Promaque_de_Macédoine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Plutarch • Life of Alexander (Part 7 of 7) », sur penelope.uchicago.edu (consulté le 11 mars 2022)
